--- a/biology/Médecine/Dysplasie_de_hanche/Dysplasie_de_hanche.xlsx
+++ b/biology/Médecine/Dysplasie_de_hanche/Dysplasie_de_hanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dysplasie de hanche (type Beukes) est une maladie constitutionnelle de l'os du groupe des dysplasies épiphysaires multiples.
 L'étude génétique a permis de rattacher cette maladie à une famille d'origine hollandaise qui a émigré en Afrique du Sud.
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de Cilliers Beighton</t>
         </is>
@@ -542,9 +556,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le gène en cause est inconnu mais il se localise sur le locus q35 du  chromosome 4[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le gène en cause est inconnu mais il se localise sur le locus q35 du  chromosome 4.</t>
         </is>
       </c>
     </row>
@@ -572,7 +588,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie se manifeste d'abord par des douleurs articulaires des hanches apparaissant souvent dans l'enfance. La marche est progressivement perturbée et aboutit à une infirmité. L'état général est bon et il n'existe aucune manifestation extra articulaire. Le signe radiologique majeur est l'aplatissement de l'épiphyse de la tête fémorale.
 </t>
@@ -603,7 +621,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique dominante
 Elle se transmet par descendance. Du père ou de la mère.
